--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501737.8682514603</v>
+        <v>592373.2249468986</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764768</v>
+        <v>7622616.185043054</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9282160.724983832</v>
+        <v>8982632.41593078</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15.4022924851446</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>138.261311358952</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.7516665411907</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>232.2791855053265</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="6">
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>109.3170492634406</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>150.0143330028111</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>5.568877204556772</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.8526977409307</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>97.54335538547734</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>13.45644170423142</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>48.5102954688841</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>9.09957336114072</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>3.96130316591123</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>72.57171105915099</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>145.4181264572034</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>99.59933623926837</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>205.6626697667473</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>165.6493770791446</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>71.16124876855189</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>310.9299993360291</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>329.8144471918069</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2248,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.0914199928486</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347174</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>56.22992883261846</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>60.73190297294777</v>
       </c>
       <c r="S25" t="n">
-        <v>52.79913863645211</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>127.650136282065</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>14.31259208839388</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.3798747282129</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.2120483577851</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>225.1969906985312</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>28.93420885558034</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3080,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>104.4052339083162</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3844270995957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>184.147735321692</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>24.2829462521859</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>338.9847109122745</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>136.9968647819702</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>261.8435345763934</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>313.3962193402702</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.1929118796484</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>163.2313314930724</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>230.2267521569518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>267.7473854578238</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>66.06391530585681</v>
       </c>
       <c r="E46" t="n">
-        <v>7.601081015448052</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678428</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V3" t="n">
-        <v>344.079722251358</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="W3" t="n">
-        <v>154.6599372348733</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.55991817042133</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>489.3218289035393</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757274</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5553157873387</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819953</v>
+        <v>465.2530182692146</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>633.0454302264744</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T4" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U4" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.4747669672984</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C5" t="n">
-        <v>287.4747669672984</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D5" t="n">
-        <v>287.4747669672984</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E5" t="n">
-        <v>287.4747669672984</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016544</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y5" t="n">
-        <v>553.8524235344764</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U6" t="n">
-        <v>926.0983743305515</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V6" t="n">
-        <v>690.9462660988088</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>443.6253053489522</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>293.5086659366165</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>293.5086659366165</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>293.5086659366165</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968609</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="V7" t="n">
-        <v>308.3243389909741</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="W7" t="n">
-        <v>41.94668242379612</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434483</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434483</v>
+        <v>612.5614882768591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.3762856997373</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C8" t="n">
-        <v>866.3762856997373</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>508.1105870929867</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634539</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373459</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631119</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>434.9380122595995</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>434.9380122595995</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>275.700557254144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>427.186815718362</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>684.7379512783496</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.644846746859</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1347.42737074149</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1638.786616996056</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556957</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>736.5099833074702</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>736.5099833074702</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>736.5099833074702</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>547.0901982909854</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>547.0901982909854</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481339</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.68199108318</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>43.17590452428101</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>587.3641452287295</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S10" t="n">
-        <v>1328.190584012311</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.586726704934</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U10" t="n">
-        <v>815.4604056789578</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V10" t="n">
-        <v>560.775917473071</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361104</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097632</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>709.615767892637</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030294</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>504.4781294962293</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>335.5419465683224</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>335.5419465683224</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>335.5419465683224</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>335.5419465683224</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8391099430413</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>906.9191734699991</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.126594326469</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.833343223197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>883.8708262827852</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>525.6051276760347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>139.8168750777905</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.03827352421</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X14" t="n">
-        <v>2029.57251526313</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1639.433183287319</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>793.5809963705858</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6448134426789</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5431,55 +5433,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>1196.022040344356</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>975.2294612008255</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C17" t="n">
-        <v>921.7704558796261</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D17" t="n">
-        <v>921.7704558796261</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E17" t="n">
-        <v>921.7704558796261</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5513,7 +5515,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5525,7 +5527,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,13 +5582,13 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,31 +5597,31 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.6375233676408</v>
+        <v>380.0519063245727</v>
       </c>
       <c r="C19" t="n">
-        <v>680.6375233676408</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D19" t="n">
-        <v>530.5208839553051</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E19" t="n">
-        <v>382.6077903729119</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F19" t="n">
-        <v>235.7178428750016</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7178428750016</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6375233676408</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.6375233676408</v>
+        <v>561.7003711548124</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1904.487375535338</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1904.487375535338</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1546.221676928588</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
@@ -5765,7 +5767,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796418</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535338</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y20" t="n">
-        <v>1904.487375535338</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1931.789305875498</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C22" t="n">
-        <v>1762.853122947591</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D22" t="n">
-        <v>1612.736483535256</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G22" t="n">
         <v>1464.823389952862</v>
@@ -5914,46 +5916,46 @@
         <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
         <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
         <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>3106.321558990133</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>3106.321558990133</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>2851.637070784246</v>
+        <v>3166.229854907437</v>
       </c>
       <c r="W22" t="n">
-        <v>2562.219900747285</v>
+        <v>2876.812684870476</v>
       </c>
       <c r="X22" t="n">
-        <v>2334.230349849268</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y22" t="n">
-        <v>2113.437770705738</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1865.949191550162</v>
       </c>
       <c r="S25" t="n">
-        <v>1784.131627576877</v>
+        <v>1865.949191550162</v>
       </c>
       <c r="T25" t="n">
-        <v>1562.365012146403</v>
+        <v>1644.182576119688</v>
       </c>
       <c r="U25" t="n">
-        <v>1273.262145272047</v>
+        <v>1355.079709245332</v>
       </c>
       <c r="V25" t="n">
-        <v>1273.262145272047</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="W25" t="n">
-        <v>1273.262145272047</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="X25" t="n">
-        <v>1273.262145272047</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1308.370295943747</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C26" t="n">
-        <v>1308.370295943747</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D26" t="n">
-        <v>950.1045973369964</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E26" t="n">
-        <v>950.1045973369964</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1640.204086189705</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C28" t="n">
-        <v>1471.267903261798</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952861</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="T28" t="n">
-        <v>3103.839206178696</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="U28" t="n">
-        <v>2814.73633930434</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="V28" t="n">
-        <v>2560.051851098453</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="W28" t="n">
-        <v>2270.634681061492</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X28" t="n">
-        <v>2042.645130163475</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y28" t="n">
-        <v>1821.852551019945</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1506.396382525582</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.43386558517</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6491,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1506.396382525582</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W31" t="n">
-        <v>1637.877378051532</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X31" t="n">
-        <v>1409.887827153515</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796252</v>
+        <v>1845.410930903097</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392135</v>
+        <v>1845.410930903097</v>
       </c>
       <c r="D32" t="n">
-        <v>552.8079389392135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>552.8079389392135</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8079389392135</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>137.73548878421</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962484</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.188651572209</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936254</v>
+        <v>2173.075677452186</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792724</v>
+        <v>2173.075677452186</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1964.590111108286</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1743.797531964756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>861.9037188836096</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>450.917814094002</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>3093.488074938325</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>3093.488074938325</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1772.140244377709</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C40" t="n">
-        <v>1603.204061449802</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D40" t="n">
         <v>1464.823389952862</v>
@@ -7330,10 +7332,10 @@
         <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
         <v>2030.49300379717</v>
@@ -7342,13 +7344,13 @@
         <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O40" t="n">
         <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q40" t="n">
         <v>3325.605821609171</v>
@@ -7357,25 +7359,25 @@
         <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366699</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T40" t="n">
-        <v>3235.775364366699</v>
+        <v>2928.458509941853</v>
       </c>
       <c r="U40" t="n">
-        <v>2946.672497492343</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V40" t="n">
-        <v>2691.988009286456</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W40" t="n">
-        <v>2402.570839249495</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X40" t="n">
-        <v>2174.581288351478</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y40" t="n">
-        <v>1953.788709207948</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1127.748203495404</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C41" t="n">
-        <v>758.7856865549927</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D41" t="n">
-        <v>758.7856865549927</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="E41" t="n">
-        <v>372.9974339567485</v>
+        <v>836.0567576997669</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>425.0708529101593</v>
       </c>
       <c r="G41" t="n">
         <v>108.5090151927147</v>
@@ -7406,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796418</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535338</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1514.348043559526</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>899.0183448486844</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C43" t="n">
-        <v>899.0183448486844</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1762.414415267207</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1540.647799836734</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1251.544932962377</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783662</v>
+        <v>996.8604447564901</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.007895746702</v>
+        <v>707.4432747195295</v>
       </c>
       <c r="X43" t="n">
-        <v>899.0183448486844</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="Y43" t="n">
-        <v>899.0183448486844</v>
+        <v>479.4537238215122</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.318139675982</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
         <v>1320.35562273557</v>
@@ -7643,16 +7645,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2839.523069976995</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W44" t="n">
-        <v>2839.523069976995</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X44" t="n">
-        <v>2466.057311715915</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>2075.917979740103</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1640.204086189706</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C46" t="n">
-        <v>1640.204086189706</v>
+        <v>300.946180639138</v>
       </c>
       <c r="D46" t="n">
-        <v>1640.204086189706</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178697</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.73633930434</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098453</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061493</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>2042.645130163475</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>1821.852551019945</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>145.2551346857769</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>145.8220995101048</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>56.2746049302074</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471075</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22550,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>241.703508565617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893603</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>151.1308911647228</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22644,7 +22646,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>67.51167384452546</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="4">
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>33.6822961053785</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22756,16 +22758,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>61.89021848785134</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>116.9617832120865</v>
+        <v>195.4337306849999</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>11.50893333199753</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>116.537438240114</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,10 +22944,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>16.98760219990308</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>220.1407781844804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.8811439225499</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23102,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>75.1651436028384</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.3138029867182</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>148.6773952907318</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>58.54713631400557</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.73949432713036</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.61205615750808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>98.99741117027108</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>377.1383652949129</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.7937117484095</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>334.3043346825605</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.197346561008914</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2767095024431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>143.5782989506658</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>1.597444019483277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>73.5937661457689</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>71.0003707362327</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>39.91665348666214</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>2.457529283320554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.35543628911057</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>194.7652431262835</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>28.20024969709956</v>
       </c>
       <c r="S25" t="n">
-        <v>136.9698866949898</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>279.2259094596464</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>236.6825798705081</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433958</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>222.7020862222428</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.85806392784065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>3.556976973656759</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>129.4860509221518</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>265.6735555317401</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>182.1177644282748</v>
       </c>
       <c r="X34" t="n">
-        <v>83.32522828944147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>181.1251564493156</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>201.4267091368513</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>71.93701474117898</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.19860275476364</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>11.61860823624215</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>145.032511165318</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>97.52550631318326</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>23.42256113856399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>26.53769383836945</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>97.52550631318312</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>81.49358325958917</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>82.55155771235555</v>
       </c>
       <c r="E46" t="n">
-        <v>138.8328816311211</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533535.2767150021</v>
+        <v>470601.0454114971</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729119.2639276336</v>
+        <v>470601.0454114971</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231801</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="F2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223747</v>
-      </c>
       <c r="I2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
@@ -26341,16 +26343,16 @@
         <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
         <v>323947.2440223744</v>
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477421</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599825</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040622</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932018</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608628</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>10637.53658444007</v>
       </c>
       <c r="C4" t="n">
-        <v>13649.17455297509</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="D4" t="n">
-        <v>16719.08796814454</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091499</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161354</v>
+      </c>
+      <c r="C5" t="n">
         <v>56985.80041161357</v>
       </c>
-      <c r="C5" t="n">
-        <v>63047.80320426619</v>
-      </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-487560.7038981175</v>
+        <v>-487560.7038981171</v>
       </c>
       <c r="C6" t="n">
-        <v>32735.17183524126</v>
+        <v>103796.1986227275</v>
       </c>
       <c r="D6" t="n">
-        <v>-128072.4705608192</v>
+        <v>103796.1986227279</v>
       </c>
       <c r="E6" t="n">
-        <v>-36160.2454080203</v>
+        <v>-387264.1432747779</v>
       </c>
       <c r="F6" t="n">
-        <v>239870.5003588897</v>
+        <v>239870.5003588899</v>
       </c>
       <c r="G6" t="n">
-        <v>239870.5003588899</v>
+        <v>239870.5003588893</v>
       </c>
       <c r="H6" t="n">
+        <v>239870.5003588898</v>
+      </c>
+      <c r="I6" t="n">
         <v>239870.5003588896</v>
       </c>
-      <c r="I6" t="n">
-        <v>239870.50035889</v>
-      </c>
       <c r="J6" t="n">
-        <v>190805.5556303451</v>
+        <v>190805.5556303452</v>
       </c>
       <c r="K6" t="n">
-        <v>220262.0718084834</v>
+        <v>239870.5003588896</v>
       </c>
       <c r="L6" t="n">
-        <v>169409.6934495696</v>
+        <v>239870.5003588896</v>
       </c>
       <c r="M6" t="n">
-        <v>167779.1477428035</v>
+        <v>79414.05849101237</v>
       </c>
       <c r="N6" t="n">
+        <v>239870.5003588896</v>
+      </c>
+      <c r="O6" t="n">
         <v>239870.5003588898</v>
-      </c>
-      <c r="O6" t="n">
-        <v>239870.5003588897</v>
       </c>
       <c r="P6" t="n">
         <v>239870.5003588897</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129042</v>
+      </c>
+      <c r="C3" t="n">
         <v>548.4699409129046</v>
       </c>
-      <c r="C3" t="n">
-        <v>614.0550137694783</v>
-      </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663196</v>
+      </c>
+      <c r="C4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C4" t="n">
-        <v>263.7138800015061</v>
-      </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657367</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>157.4143504322377</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>169.4872848053129</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.9526521472061</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
